--- a/user-data/iati-budgets-nl/iati-budgets-nl.xlsx
+++ b/user-data/iati-budgets-nl/iati-budgets-nl.xlsx
@@ -40,40 +40,64 @@
     <t xml:space="preserve">Albania</t>
   </si>
   <si>
+    <t xml:space="preserve">DZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Algeria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Angola</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Argentina</t>
+  </si>
+  <si>
     <t xml:space="preserve">AM</t>
   </si>
   <si>
     <t xml:space="preserve">Armenia</t>
   </si>
   <si>
-    <t xml:space="preserve">AO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Angola</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Argentina</t>
-  </si>
-  <si>
     <t xml:space="preserve">AZ</t>
   </si>
   <si>
     <t xml:space="preserve">Azerbaijan</t>
   </si>
   <si>
+    <t xml:space="preserve">BD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bangladesh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bolivia</t>
+  </si>
+  <si>
     <t xml:space="preserve">BA</t>
   </si>
   <si>
     <t xml:space="preserve">Bosnia &amp; Herzegovina</t>
   </si>
   <si>
-    <t xml:space="preserve">BD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bangladesh</t>
+    <t xml:space="preserve">BR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brazil</t>
   </si>
   <si>
     <t xml:space="preserve">BI</t>
@@ -82,22 +106,34 @@
     <t xml:space="preserve">Burundi</t>
   </si>
   <si>
-    <t xml:space="preserve">BJ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Benin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bolivia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brazil</t>
+    <t xml:space="preserve">CF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">China</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colombia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dominican Republic</t>
   </si>
   <si>
     <t xml:space="preserve">CD</t>
@@ -106,42 +142,6 @@
     <t xml:space="preserve">DRC</t>
   </si>
   <si>
-    <t xml:space="preserve">CF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">China</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Colombia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cuba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dominican Republic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Algeria</t>
-  </si>
-  <si>
     <t xml:space="preserve">EG</t>
   </si>
   <si>
@@ -172,16 +172,22 @@
     <t xml:space="preserve">Guatemala</t>
   </si>
   <si>
+    <t xml:space="preserve">IN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">India</t>
+  </si>
+  <si>
     <t xml:space="preserve">ID</t>
   </si>
   <si>
     <t xml:space="preserve">Indonesia</t>
   </si>
   <si>
-    <t xml:space="preserve">IN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">India</t>
+    <t xml:space="preserve">IR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iran</t>
   </si>
   <si>
     <t xml:space="preserve">IQ</t>
@@ -190,46 +196,172 @@
     <t xml:space="preserve">Iraq</t>
   </si>
   <si>
-    <t xml:space="preserve">IR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iran</t>
-  </si>
-  <si>
     <t xml:space="preserve">JO</t>
   </si>
   <si>
     <t xml:space="preserve">Jordan</t>
   </si>
   <si>
+    <t xml:space="preserve">KZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kazakhstan</t>
+  </si>
+  <si>
     <t xml:space="preserve">KE</t>
   </si>
   <si>
     <t xml:space="preserve">Kenya</t>
   </si>
   <si>
+    <t xml:space="preserve">XK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kosovo</t>
+  </si>
+  <si>
     <t xml:space="preserve">KG</t>
   </si>
   <si>
     <t xml:space="preserve">Kyrgyzstan</t>
   </si>
   <si>
+    <t xml:space="preserve">LB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lebanon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Libya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macedonia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malawi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ML</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mali</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mexico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moldova</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Morocco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mozambique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Myanmar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nepal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nigeria</t>
+  </si>
+  <si>
     <t xml:space="preserve">KP</t>
   </si>
   <si>
     <t xml:space="preserve">North Korea</t>
   </si>
   <si>
-    <t xml:space="preserve">KZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kazakhstan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lebanon</t>
+    <t xml:space="preserve">PK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pakistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Palestine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Philippines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rwanda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Senegal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serbia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sierra Leone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Somalia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Africa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Sudan</t>
   </si>
   <si>
     <t xml:space="preserve">LK</t>
@@ -238,144 +370,30 @@
     <t xml:space="preserve">Sri Lanka</t>
   </si>
   <si>
-    <t xml:space="preserve">LY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Libya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Morocco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moldova</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Macedonia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ML</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mali</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Myanmar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Malawi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mexico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mozambique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nigeria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nepal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Philippines</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pakistan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Palestine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Serbia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rwanda</t>
-  </si>
-  <si>
     <t xml:space="preserve">SD</t>
   </si>
   <si>
     <t xml:space="preserve">Sudan</t>
   </si>
   <si>
-    <t xml:space="preserve">SL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sierra Leone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Senegal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Somalia</t>
-  </si>
-  <si>
     <t xml:space="preserve">SR</t>
   </si>
   <si>
     <t xml:space="preserve">Suriname</t>
   </si>
   <si>
-    <t xml:space="preserve">SS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">South Sudan</t>
-  </si>
-  <si>
     <t xml:space="preserve">SY</t>
   </si>
   <si>
     <t xml:space="preserve">Syria</t>
   </si>
   <si>
+    <t xml:space="preserve">TZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tanzania</t>
+  </si>
+  <si>
     <t xml:space="preserve">TH</t>
   </si>
   <si>
@@ -394,10 +412,10 @@
     <t xml:space="preserve">Turkey</t>
   </si>
   <si>
-    <t xml:space="preserve">TZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tanzania</t>
+    <t xml:space="preserve">UG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uganda</t>
   </si>
   <si>
     <t xml:space="preserve">UA</t>
@@ -406,46 +424,28 @@
     <t xml:space="preserve">Ukraine</t>
   </si>
   <si>
-    <t xml:space="preserve">UG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uganda</t>
-  </si>
-  <si>
     <t xml:space="preserve">UY</t>
   </si>
   <si>
     <t xml:space="preserve">Uruguay</t>
   </si>
   <si>
+    <t xml:space="preserve">VU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vanuatu</t>
+  </si>
+  <si>
     <t xml:space="preserve">VN</t>
   </si>
   <si>
     <t xml:space="preserve">Viet Nam</t>
   </si>
   <si>
-    <t xml:space="preserve">VU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vanuatu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kosovo</t>
-  </si>
-  <si>
     <t xml:space="preserve">YE</t>
   </si>
   <si>
     <t xml:space="preserve">Yemen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">South Africa</t>
   </si>
   <si>
     <t xml:space="preserve">ZW</t>
@@ -1055,7 +1055,7 @@
         <v>2016</v>
       </c>
       <c r="D9" t="n">
-        <v>158790</v>
+        <v>67138</v>
       </c>
     </row>
     <row r="10">
@@ -1069,7 +1069,7 @@
         <v>2017</v>
       </c>
       <c r="D10" t="n">
-        <v>80186</v>
+        <v>3296</v>
       </c>
     </row>
     <row r="11">
@@ -1125,21 +1125,21 @@
         <v>2016</v>
       </c>
       <c r="D14" t="n">
-        <v>25652</v>
+        <v>158790</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C15" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D15" t="n">
-        <v>2785239</v>
+        <v>80186</v>
       </c>
     </row>
     <row r="16">
@@ -1150,24 +1150,24 @@
         <v>17</v>
       </c>
       <c r="C16" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D16" t="n">
-        <v>866579</v>
+        <v>25652</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C17" t="n">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="D17" t="n">
-        <v>76416</v>
+        <v>50574462</v>
       </c>
     </row>
     <row r="18">
@@ -1178,10 +1178,10 @@
         <v>19</v>
       </c>
       <c r="C18" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D18" t="n">
-        <v>50574462</v>
+        <v>28206262</v>
       </c>
     </row>
     <row r="19">
@@ -1192,10 +1192,10 @@
         <v>19</v>
       </c>
       <c r="C19" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D19" t="n">
-        <v>28206262</v>
+        <v>16673148</v>
       </c>
     </row>
     <row r="20">
@@ -1206,10 +1206,10 @@
         <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D20" t="n">
-        <v>16673148</v>
+        <v>3762283</v>
       </c>
     </row>
     <row r="21">
@@ -1220,24 +1220,24 @@
         <v>19</v>
       </c>
       <c r="C21" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D21" t="n">
-        <v>3762283</v>
+        <v>1031093</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C22" t="n">
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="D22" t="n">
-        <v>1031093</v>
+        <v>51894021</v>
       </c>
     </row>
     <row r="23">
@@ -1248,10 +1248,10 @@
         <v>21</v>
       </c>
       <c r="C23" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D23" t="n">
-        <v>33460977</v>
+        <v>13220551</v>
       </c>
     </row>
     <row r="24">
@@ -1262,10 +1262,10 @@
         <v>21</v>
       </c>
       <c r="C24" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D24" t="n">
-        <v>29621704</v>
+        <v>1647423</v>
       </c>
     </row>
     <row r="25">
@@ -1276,10 +1276,10 @@
         <v>21</v>
       </c>
       <c r="C25" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D25" t="n">
-        <v>21365048</v>
+        <v>85253</v>
       </c>
     </row>
     <row r="26">
@@ -1290,136 +1290,136 @@
         <v>21</v>
       </c>
       <c r="C26" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D26" t="n">
-        <v>5472319</v>
+        <v>47415</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B27" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C27" t="n">
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="D27" t="n">
-        <v>3149697</v>
+        <v>593663</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C28" t="n">
         <v>2016</v>
       </c>
       <c r="D28" t="n">
-        <v>51894021</v>
+        <v>2785239</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C29" t="n">
         <v>2017</v>
       </c>
       <c r="D29" t="n">
-        <v>13220551</v>
+        <v>866579</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C30" t="n">
         <v>2018</v>
       </c>
       <c r="D30" t="n">
-        <v>1647423</v>
+        <v>76416</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B31" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C31" t="n">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="D31" t="n">
-        <v>85253</v>
+        <v>177022</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B32" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C32" t="n">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="D32" t="n">
-        <v>47415</v>
+        <v>4236</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B33" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C33" t="n">
         <v>2016</v>
       </c>
       <c r="D33" t="n">
-        <v>593663</v>
+        <v>33460977</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B34" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C34" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D34" t="n">
-        <v>177022</v>
+        <v>29621704</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B35" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C35" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D35" t="n">
-        <v>4236</v>
+        <v>21365048</v>
       </c>
     </row>
     <row r="36">
@@ -1430,10 +1430,10 @@
         <v>29</v>
       </c>
       <c r="C36" t="n">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="D36" t="n">
-        <v>16252576</v>
+        <v>5472319</v>
       </c>
     </row>
     <row r="37">
@@ -1444,122 +1444,122 @@
         <v>29</v>
       </c>
       <c r="C37" t="n">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="D37" t="n">
-        <v>10477548</v>
+        <v>3149697</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B38" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C38" t="n">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="D38" t="n">
-        <v>7949952</v>
+        <v>12845414</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B39" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C39" t="n">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="D39" t="n">
-        <v>1818072</v>
+        <v>1071427</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B40" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C40" t="n">
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="D40" t="n">
-        <v>104190</v>
+        <v>2846566</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B41" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C41" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D41" t="n">
-        <v>12845414</v>
+        <v>907881</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B42" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C42" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D42" t="n">
-        <v>1071427</v>
+        <v>387431</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B43" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C43" t="n">
         <v>2016</v>
       </c>
       <c r="D43" t="n">
-        <v>2846566</v>
+        <v>2332473</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B44" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C44" t="n">
         <v>2017</v>
       </c>
       <c r="D44" t="n">
-        <v>907881</v>
+        <v>1382173</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B45" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C45" t="n">
         <v>2018</v>
       </c>
       <c r="D45" t="n">
-        <v>387431</v>
+        <v>839237</v>
       </c>
     </row>
     <row r="46">
@@ -1570,10 +1570,10 @@
         <v>35</v>
       </c>
       <c r="C46" t="n">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="D46" t="n">
-        <v>2332473</v>
+        <v>117067</v>
       </c>
     </row>
     <row r="47">
@@ -1584,94 +1584,94 @@
         <v>35</v>
       </c>
       <c r="C47" t="n">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="D47" t="n">
-        <v>1382173</v>
+        <v>104191</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B48" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C48" t="n">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="D48" t="n">
-        <v>839237</v>
+        <v>371100</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B49" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C49" t="n">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="D49" t="n">
-        <v>117067</v>
+        <v>88245</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B50" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C50" t="n">
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="D50" t="n">
-        <v>104191</v>
+        <v>26047</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B51" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C51" t="n">
         <v>2016</v>
       </c>
       <c r="D51" t="n">
-        <v>371100</v>
+        <v>16252576</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B52" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C52" t="n">
         <v>2017</v>
       </c>
       <c r="D52" t="n">
-        <v>88245</v>
+        <v>10477548</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B53" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C53" t="n">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="D53" t="n">
-        <v>26047</v>
+        <v>7949952</v>
       </c>
     </row>
     <row r="54">
@@ -1682,10 +1682,10 @@
         <v>41</v>
       </c>
       <c r="C54" t="n">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="D54" t="n">
-        <v>67138</v>
+        <v>1818072</v>
       </c>
     </row>
     <row r="55">
@@ -1696,10 +1696,10 @@
         <v>41</v>
       </c>
       <c r="C55" t="n">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="D55" t="n">
-        <v>3296</v>
+        <v>104190</v>
       </c>
     </row>
     <row r="56">
@@ -1979,7 +1979,7 @@
         <v>2016</v>
       </c>
       <c r="D75" t="n">
-        <v>26635154</v>
+        <v>734894</v>
       </c>
     </row>
     <row r="76">
@@ -1993,7 +1993,7 @@
         <v>2017</v>
       </c>
       <c r="D76" t="n">
-        <v>13563354</v>
+        <v>320884</v>
       </c>
     </row>
     <row r="77">
@@ -2007,21 +2007,21 @@
         <v>2018</v>
       </c>
       <c r="D77" t="n">
-        <v>8733129</v>
+        <v>18827</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B78" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C78" t="n">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="D78" t="n">
-        <v>2962538</v>
+        <v>26635154</v>
       </c>
     </row>
     <row r="79">
@@ -2032,10 +2032,10 @@
         <v>55</v>
       </c>
       <c r="C79" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D79" t="n">
-        <v>734894</v>
+        <v>13563354</v>
       </c>
     </row>
     <row r="80">
@@ -2046,10 +2046,10 @@
         <v>55</v>
       </c>
       <c r="C80" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D80" t="n">
-        <v>320884</v>
+        <v>8733129</v>
       </c>
     </row>
     <row r="81">
@@ -2060,10 +2060,10 @@
         <v>55</v>
       </c>
       <c r="C81" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D81" t="n">
-        <v>18827</v>
+        <v>2962538</v>
       </c>
     </row>
     <row r="82">
@@ -2077,7 +2077,7 @@
         <v>2016</v>
       </c>
       <c r="D82" t="n">
-        <v>39812497</v>
+        <v>511839</v>
       </c>
     </row>
     <row r="83">
@@ -2091,7 +2091,7 @@
         <v>2017</v>
       </c>
       <c r="D83" t="n">
-        <v>4001710</v>
+        <v>507172</v>
       </c>
     </row>
     <row r="84">
@@ -2105,35 +2105,35 @@
         <v>2018</v>
       </c>
       <c r="D84" t="n">
-        <v>646438</v>
+        <v>79753</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B85" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C85" t="n">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="D85" t="n">
-        <v>94739</v>
+        <v>39812497</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B86" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C86" t="n">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="D86" t="n">
-        <v>104190</v>
+        <v>4001710</v>
       </c>
     </row>
     <row r="87">
@@ -2144,10 +2144,10 @@
         <v>59</v>
       </c>
       <c r="C87" t="n">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="D87" t="n">
-        <v>511839</v>
+        <v>646438</v>
       </c>
     </row>
     <row r="88">
@@ -2158,10 +2158,10 @@
         <v>59</v>
       </c>
       <c r="C88" t="n">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="D88" t="n">
-        <v>507172</v>
+        <v>94739</v>
       </c>
     </row>
     <row r="89">
@@ -2172,10 +2172,10 @@
         <v>59</v>
       </c>
       <c r="C89" t="n">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="D89" t="n">
-        <v>79753</v>
+        <v>104190</v>
       </c>
     </row>
     <row r="90">
@@ -2231,7 +2231,7 @@
         <v>2016</v>
       </c>
       <c r="D93" t="n">
-        <v>26870369</v>
+        <v>878140</v>
       </c>
     </row>
     <row r="94">
@@ -2245,7 +2245,7 @@
         <v>2017</v>
       </c>
       <c r="D94" t="n">
-        <v>14921255</v>
+        <v>178182</v>
       </c>
     </row>
     <row r="95">
@@ -2259,7 +2259,7 @@
         <v>2018</v>
       </c>
       <c r="D95" t="n">
-        <v>11078791</v>
+        <v>26190</v>
       </c>
     </row>
     <row r="96">
@@ -2273,21 +2273,21 @@
         <v>2019</v>
       </c>
       <c r="D96" t="n">
-        <v>3560183</v>
+        <v>11514</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B97" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C97" t="n">
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="D97" t="n">
-        <v>1915200</v>
+        <v>26870369</v>
       </c>
     </row>
     <row r="98">
@@ -2298,10 +2298,10 @@
         <v>65</v>
       </c>
       <c r="C98" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D98" t="n">
-        <v>26047</v>
+        <v>14921255</v>
       </c>
     </row>
     <row r="99">
@@ -2312,52 +2312,52 @@
         <v>65</v>
       </c>
       <c r="C99" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D99" t="n">
-        <v>26047</v>
+        <v>11078791</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B100" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C100" t="n">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="D100" t="n">
-        <v>31289</v>
+        <v>3560183</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B101" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C101" t="n">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="D101" t="n">
-        <v>878140</v>
+        <v>1915200</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B102" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C102" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D102" t="n">
-        <v>178182</v>
+        <v>53188</v>
       </c>
     </row>
     <row r="103">
@@ -2368,10 +2368,10 @@
         <v>69</v>
       </c>
       <c r="C103" t="n">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="D103" t="n">
-        <v>26190</v>
+        <v>26047</v>
       </c>
     </row>
     <row r="104">
@@ -2382,10 +2382,10 @@
         <v>69</v>
       </c>
       <c r="C104" t="n">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="D104" t="n">
-        <v>11514</v>
+        <v>26047</v>
       </c>
     </row>
     <row r="105">
@@ -2441,7 +2441,7 @@
         <v>2016</v>
       </c>
       <c r="D108" t="n">
-        <v>148545</v>
+        <v>1051908</v>
       </c>
     </row>
     <row r="109">
@@ -2455,7 +2455,7 @@
         <v>2017</v>
       </c>
       <c r="D109" t="n">
-        <v>100813</v>
+        <v>1225008</v>
       </c>
     </row>
     <row r="110">
@@ -2469,35 +2469,35 @@
         <v>2018</v>
       </c>
       <c r="D110" t="n">
-        <v>35765</v>
+        <v>584871</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B111" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C111" t="n">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="D111" t="n">
-        <v>1051908</v>
+        <v>85062</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B112" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C112" t="n">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="D112" t="n">
-        <v>1225008</v>
+        <v>103298</v>
       </c>
     </row>
     <row r="113">
@@ -2508,10 +2508,10 @@
         <v>75</v>
       </c>
       <c r="C113" t="n">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="D113" t="n">
-        <v>584871</v>
+        <v>52095</v>
       </c>
     </row>
     <row r="114">
@@ -2522,80 +2522,80 @@
         <v>75</v>
       </c>
       <c r="C114" t="n">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="D114" t="n">
-        <v>85062</v>
+        <v>10419</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B115" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C115" t="n">
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="D115" t="n">
-        <v>103298</v>
+        <v>58346</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B116" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C116" t="n">
         <v>2016</v>
       </c>
       <c r="D116" t="n">
-        <v>698471</v>
+        <v>39612532</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B117" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C117" t="n">
         <v>2017</v>
       </c>
       <c r="D117" t="n">
-        <v>646877</v>
+        <v>26505067</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B118" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C118" t="n">
         <v>2018</v>
       </c>
       <c r="D118" t="n">
-        <v>369924</v>
+        <v>21354930</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B119" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C119" t="n">
         <v>2019</v>
       </c>
       <c r="D119" t="n">
-        <v>18582</v>
+        <v>6957727</v>
       </c>
     </row>
     <row r="120">
@@ -2606,80 +2606,80 @@
         <v>79</v>
       </c>
       <c r="C120" t="n">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="D120" t="n">
-        <v>599986</v>
+        <v>53942</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B121" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C121" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D121" t="n">
-        <v>249144</v>
+        <v>177295</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B122" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C122" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D122" t="n">
-        <v>38307</v>
+        <v>37433</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B123" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C123" t="n">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="D123" t="n">
-        <v>33299</v>
+        <v>599986</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B124" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C124" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D124" t="n">
-        <v>52095</v>
+        <v>249144</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B125" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C125" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D125" t="n">
-        <v>10419</v>
+        <v>38307</v>
       </c>
     </row>
     <row r="126">
@@ -2690,122 +2690,122 @@
         <v>83</v>
       </c>
       <c r="C126" t="n">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="D126" t="n">
-        <v>39612532</v>
+        <v>33299</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B127" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C127" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D127" t="n">
-        <v>26505067</v>
+        <v>698471</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B128" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C128" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D128" t="n">
-        <v>21354930</v>
+        <v>646877</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B129" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C129" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D129" t="n">
-        <v>6957727</v>
+        <v>369924</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B130" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C130" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D130" t="n">
-        <v>53942</v>
+        <v>18582</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B131" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C131" t="n">
         <v>2016</v>
       </c>
       <c r="D131" t="n">
-        <v>1684206</v>
+        <v>44217189</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B132" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C132" t="n">
         <v>2017</v>
       </c>
       <c r="D132" t="n">
-        <v>1274849</v>
+        <v>17987524</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B133" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C133" t="n">
         <v>2018</v>
       </c>
       <c r="D133" t="n">
-        <v>773425</v>
+        <v>2546862</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B134" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C134" t="n">
         <v>2016</v>
       </c>
       <c r="D134" t="n">
-        <v>58346</v>
+        <v>1684206</v>
       </c>
     </row>
     <row r="135">
@@ -2816,10 +2816,10 @@
         <v>89</v>
       </c>
       <c r="C135" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D135" t="n">
-        <v>177295</v>
+        <v>1274849</v>
       </c>
     </row>
     <row r="136">
@@ -2830,10 +2830,10 @@
         <v>89</v>
       </c>
       <c r="C136" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D136" t="n">
-        <v>37433</v>
+        <v>773425</v>
       </c>
     </row>
     <row r="137">
@@ -2847,35 +2847,35 @@
         <v>2016</v>
       </c>
       <c r="D137" t="n">
-        <v>44217189</v>
+        <v>208380</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B138" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C138" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D138" t="n">
-        <v>17987524</v>
+        <v>8208624</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B139" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C139" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D139" t="n">
-        <v>2546862</v>
+        <v>1356923</v>
       </c>
     </row>
     <row r="140">
@@ -2886,10 +2886,10 @@
         <v>93</v>
       </c>
       <c r="C140" t="n">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="D140" t="n">
-        <v>8208624</v>
+        <v>907113</v>
       </c>
     </row>
     <row r="141">
@@ -2900,10 +2900,10 @@
         <v>93</v>
       </c>
       <c r="C141" t="n">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="D141" t="n">
-        <v>1356923</v>
+        <v>830756</v>
       </c>
     </row>
     <row r="142">
@@ -2914,52 +2914,52 @@
         <v>93</v>
       </c>
       <c r="C142" t="n">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="D142" t="n">
-        <v>907113</v>
+        <v>696373</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B143" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C143" t="n">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="D143" t="n">
-        <v>830756</v>
+        <v>31289</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B144" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C144" t="n">
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="D144" t="n">
-        <v>696373</v>
+        <v>2852761</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B145" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C145" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D145" t="n">
-        <v>208380</v>
+        <v>530505</v>
       </c>
     </row>
     <row r="146">
@@ -2970,10 +2970,10 @@
         <v>97</v>
       </c>
       <c r="C146" t="n">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="D146" t="n">
-        <v>296757</v>
+        <v>5156</v>
       </c>
     </row>
     <row r="147">
@@ -2987,7 +2987,7 @@
         <v>2016</v>
       </c>
       <c r="D147" t="n">
-        <v>2852761</v>
+        <v>23765055</v>
       </c>
     </row>
     <row r="148">
@@ -3001,7 +3001,7 @@
         <v>2017</v>
       </c>
       <c r="D148" t="n">
-        <v>530505</v>
+        <v>4623122</v>
       </c>
     </row>
     <row r="149">
@@ -3015,21 +3015,21 @@
         <v>2018</v>
       </c>
       <c r="D149" t="n">
-        <v>5156</v>
+        <v>524792</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B150" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C150" t="n">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="D150" t="n">
-        <v>23765055</v>
+        <v>386869</v>
       </c>
     </row>
     <row r="151">
@@ -3040,38 +3040,38 @@
         <v>101</v>
       </c>
       <c r="C151" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D151" t="n">
-        <v>4623122</v>
+        <v>296757</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B152" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C152" t="n">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="D152" t="n">
-        <v>524792</v>
+        <v>45032745</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B153" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C153" t="n">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="D153" t="n">
-        <v>386869</v>
+        <v>16402922</v>
       </c>
     </row>
     <row r="154">
@@ -3082,38 +3082,38 @@
         <v>103</v>
       </c>
       <c r="C154" t="n">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="D154" t="n">
-        <v>105231</v>
+        <v>10010735</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B155" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C155" t="n">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="D155" t="n">
-        <v>45032745</v>
+        <v>7060268</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B156" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C156" t="n">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="D156" t="n">
-        <v>16402922</v>
+        <v>1354470</v>
       </c>
     </row>
     <row r="157">
@@ -3124,10 +3124,10 @@
         <v>105</v>
       </c>
       <c r="C157" t="n">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="D157" t="n">
-        <v>10010735</v>
+        <v>5627657</v>
       </c>
     </row>
     <row r="158">
@@ -3138,10 +3138,10 @@
         <v>105</v>
       </c>
       <c r="C158" t="n">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="D158" t="n">
-        <v>7060268</v>
+        <v>3334080</v>
       </c>
     </row>
     <row r="159">
@@ -3152,24 +3152,24 @@
         <v>105</v>
       </c>
       <c r="C159" t="n">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D159" t="n">
-        <v>1354470</v>
+        <v>2205460</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B160" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C160" t="n">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="D160" t="n">
-        <v>7564307</v>
+        <v>1742959</v>
       </c>
     </row>
     <row r="161">
@@ -3180,10 +3180,10 @@
         <v>107</v>
       </c>
       <c r="C161" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D161" t="n">
-        <v>221941</v>
+        <v>105231</v>
       </c>
     </row>
     <row r="162">
@@ -3211,7 +3211,7 @@
         <v>2016</v>
       </c>
       <c r="D163" t="n">
-        <v>5627657</v>
+        <v>5250953</v>
       </c>
     </row>
     <row r="164">
@@ -3225,7 +3225,7 @@
         <v>2017</v>
       </c>
       <c r="D164" t="n">
-        <v>3334080</v>
+        <v>857033</v>
       </c>
     </row>
     <row r="165">
@@ -3239,21 +3239,21 @@
         <v>2018</v>
       </c>
       <c r="D165" t="n">
-        <v>2205460</v>
+        <v>25439</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B166" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C166" t="n">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="D166" t="n">
-        <v>1742959</v>
+        <v>3244377</v>
       </c>
     </row>
     <row r="167">
@@ -3264,10 +3264,10 @@
         <v>113</v>
       </c>
       <c r="C167" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D167" t="n">
-        <v>5250953</v>
+        <v>463647</v>
       </c>
     </row>
     <row r="168">
@@ -3278,24 +3278,24 @@
         <v>113</v>
       </c>
       <c r="C168" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D168" t="n">
-        <v>857033</v>
+        <v>4728</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B169" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C169" t="n">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="D169" t="n">
-        <v>25439</v>
+        <v>69989264</v>
       </c>
     </row>
     <row r="170">
@@ -3306,10 +3306,10 @@
         <v>115</v>
       </c>
       <c r="C170" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D170" t="n">
-        <v>5173693</v>
+        <v>38324177</v>
       </c>
     </row>
     <row r="171">
@@ -3320,10 +3320,10 @@
         <v>115</v>
       </c>
       <c r="C171" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D171" t="n">
-        <v>1119883</v>
+        <v>23246103</v>
       </c>
     </row>
     <row r="172">
@@ -3334,24 +3334,24 @@
         <v>115</v>
       </c>
       <c r="C172" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D172" t="n">
-        <v>16615845</v>
+        <v>1646572</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B173" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C173" t="n">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="D173" t="n">
-        <v>69989264</v>
+        <v>1036690</v>
       </c>
     </row>
     <row r="174">
@@ -3362,10 +3362,10 @@
         <v>117</v>
       </c>
       <c r="C174" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D174" t="n">
-        <v>38324177</v>
+        <v>148545</v>
       </c>
     </row>
     <row r="175">
@@ -3376,10 +3376,10 @@
         <v>117</v>
       </c>
       <c r="C175" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D175" t="n">
-        <v>23246103</v>
+        <v>100813</v>
       </c>
     </row>
     <row r="176">
@@ -3390,24 +3390,24 @@
         <v>117</v>
       </c>
       <c r="C176" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D176" t="n">
-        <v>1646572</v>
+        <v>35765</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B177" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C177" t="n">
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="D177" t="n">
-        <v>1036690</v>
+        <v>7564307</v>
       </c>
     </row>
     <row r="178">
@@ -3418,24 +3418,24 @@
         <v>119</v>
       </c>
       <c r="C178" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D178" t="n">
-        <v>16826631</v>
+        <v>221941</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B179" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C179" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D179" t="n">
-        <v>1155239</v>
+        <v>5173693</v>
       </c>
     </row>
     <row r="180">
@@ -3446,24 +3446,24 @@
         <v>121</v>
       </c>
       <c r="C180" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D180" t="n">
-        <v>26047</v>
+        <v>1119883</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B181" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C181" t="n">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="D181" t="n">
-        <v>258666</v>
+        <v>16615845</v>
       </c>
     </row>
     <row r="182">
@@ -3474,24 +3474,24 @@
         <v>123</v>
       </c>
       <c r="C182" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D182" t="n">
-        <v>9381</v>
+        <v>16826631</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B183" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C183" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D183" t="n">
-        <v>99635662</v>
+        <v>1155239</v>
       </c>
     </row>
     <row r="184">
@@ -3502,10 +3502,10 @@
         <v>125</v>
       </c>
       <c r="C184" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D184" t="n">
-        <v>128522</v>
+        <v>1120042</v>
       </c>
     </row>
     <row r="185">
@@ -3516,10 +3516,10 @@
         <v>125</v>
       </c>
       <c r="C185" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D185" t="n">
-        <v>23359</v>
+        <v>859567</v>
       </c>
     </row>
     <row r="186">
@@ -3533,21 +3533,21 @@
         <v>2016</v>
       </c>
       <c r="D186" t="n">
-        <v>1120042</v>
+        <v>26047</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B187" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C187" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D187" t="n">
-        <v>859567</v>
+        <v>258666</v>
       </c>
     </row>
     <row r="188">
@@ -3558,38 +3558,38 @@
         <v>129</v>
       </c>
       <c r="C188" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D188" t="n">
-        <v>7919963</v>
+        <v>9381</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B189" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C189" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D189" t="n">
-        <v>1271247</v>
+        <v>99635662</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B190" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C190" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D190" t="n">
-        <v>1235361</v>
+        <v>128522</v>
       </c>
     </row>
     <row r="191">
@@ -3600,66 +3600,66 @@
         <v>131</v>
       </c>
       <c r="C191" t="n">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="D191" t="n">
-        <v>16368162</v>
+        <v>23359</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B192" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C192" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D192" t="n">
-        <v>13455213</v>
+        <v>16368162</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B193" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C193" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D193" t="n">
-        <v>7138302</v>
+        <v>13455213</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B194" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C194" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D194" t="n">
-        <v>4355142</v>
+        <v>7138302</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B195" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C195" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D195" t="n">
-        <v>1572380</v>
+        <v>4355142</v>
       </c>
     </row>
     <row r="196">
@@ -3670,10 +3670,10 @@
         <v>133</v>
       </c>
       <c r="C196" t="n">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="D196" t="n">
-        <v>4086</v>
+        <v>1572380</v>
       </c>
     </row>
     <row r="197">
@@ -3687,63 +3687,63 @@
         <v>2016</v>
       </c>
       <c r="D197" t="n">
-        <v>620046</v>
+        <v>7919963</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B198" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C198" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D198" t="n">
-        <v>112869</v>
+        <v>1271247</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B199" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C199" t="n">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="D199" t="n">
-        <v>53188</v>
+        <v>1235361</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B200" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C200" t="n">
         <v>2016</v>
       </c>
       <c r="D200" t="n">
-        <v>23361796</v>
+        <v>4086</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B201" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C201" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D201" t="n">
-        <v>8212811</v>
+        <v>112869</v>
       </c>
     </row>
     <row r="202">
@@ -3754,24 +3754,24 @@
         <v>141</v>
       </c>
       <c r="C202" t="n">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="D202" t="n">
-        <v>506979</v>
+        <v>620046</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B203" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C203" t="n">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="D203" t="n">
-        <v>154264</v>
+        <v>23361796</v>
       </c>
     </row>
     <row r="204">
@@ -3782,10 +3782,10 @@
         <v>143</v>
       </c>
       <c r="C204" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D204" t="n">
-        <v>3244377</v>
+        <v>8212811</v>
       </c>
     </row>
     <row r="205">
@@ -3796,10 +3796,10 @@
         <v>143</v>
       </c>
       <c r="C205" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D205" t="n">
-        <v>463647</v>
+        <v>506979</v>
       </c>
     </row>
     <row r="206">
@@ -3810,10 +3810,10 @@
         <v>143</v>
       </c>
       <c r="C206" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D206" t="n">
-        <v>4728</v>
+        <v>154264</v>
       </c>
     </row>
     <row r="207">
@@ -3863,18 +3863,21 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>146</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>147</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>148</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>149</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>150</v>
       </c>
     </row>
@@ -3882,19 +3885,22 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="n">
         <v>63225638</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>46007443</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>16574650</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>15695038</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>103664</v>
       </c>
     </row>
@@ -3902,101 +3908,120 @@
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="n">
         <v>85019</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>36852</v>
       </c>
-      <c r="D3"/>
       <c r="E3"/>
       <c r="F3"/>
+      <c r="G3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="n">
-        <v>158790</v>
+      <c r="B4" t="s">
+        <v>9</v>
       </c>
       <c r="C4" t="n">
-        <v>80186</v>
-      </c>
-      <c r="D4"/>
+        <v>67138</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3296</v>
+      </c>
       <c r="E4"/>
       <c r="F4"/>
+      <c r="G4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="n">
         <v>52095</v>
       </c>
-      <c r="C5"/>
       <c r="D5"/>
       <c r="E5"/>
       <c r="F5"/>
+      <c r="G5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
         <v>12</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="n">
         <v>92326</v>
       </c>
-      <c r="C6" t="n">
+      <c r="D6" t="n">
         <v>12295</v>
       </c>
-      <c r="D6"/>
       <c r="E6"/>
       <c r="F6"/>
+      <c r="G6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
         <v>14</v>
       </c>
-      <c r="B7" t="n">
-        <v>25652</v>
-      </c>
-      <c r="C7"/>
-      <c r="D7"/>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="n">
+        <v>158790</v>
+      </c>
+      <c r="D7" t="n">
+        <v>80186</v>
+      </c>
       <c r="E7"/>
       <c r="F7"/>
+      <c r="G7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
         <v>16</v>
       </c>
-      <c r="B8" t="n">
-        <v>2785239</v>
+      <c r="B8" t="s">
+        <v>17</v>
       </c>
       <c r="C8" t="n">
-        <v>866579</v>
-      </c>
-      <c r="D8" t="n">
-        <v>76416</v>
-      </c>
+        <v>25652</v>
+      </c>
+      <c r="D8"/>
       <c r="E8"/>
       <c r="F8"/>
+      <c r="G8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
         <v>18</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="n">
         <v>50574462</v>
       </c>
-      <c r="C9" t="n">
+      <c r="D9" t="n">
         <v>28206262</v>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
         <v>16673148</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>3762283</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>1031093</v>
       </c>
     </row>
@@ -4004,135 +4029,155 @@
       <c r="A10" t="s">
         <v>20</v>
       </c>
-      <c r="B10" t="n">
-        <v>33460977</v>
+      <c r="B10" t="s">
+        <v>21</v>
       </c>
       <c r="C10" t="n">
-        <v>29621704</v>
+        <v>51894021</v>
       </c>
       <c r="D10" t="n">
-        <v>21365048</v>
+        <v>13220551</v>
       </c>
       <c r="E10" t="n">
-        <v>5472319</v>
+        <v>1647423</v>
       </c>
       <c r="F10" t="n">
-        <v>3149697</v>
+        <v>85253</v>
+      </c>
+      <c r="G10" t="n">
+        <v>47415</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
         <v>22</v>
       </c>
-      <c r="B11" t="n">
-        <v>51894021</v>
+      <c r="B11" t="s">
+        <v>23</v>
       </c>
       <c r="C11" t="n">
-        <v>13220551</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1647423</v>
-      </c>
-      <c r="E11" t="n">
-        <v>85253</v>
-      </c>
-      <c r="F11" t="n">
-        <v>47415</v>
-      </c>
+        <v>593663</v>
+      </c>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="G11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
         <v>24</v>
       </c>
-      <c r="B12" t="n">
-        <v>593663</v>
-      </c>
-      <c r="C12"/>
-      <c r="D12"/>
-      <c r="E12"/>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2785239</v>
+      </c>
+      <c r="D12" t="n">
+        <v>866579</v>
+      </c>
+      <c r="E12" t="n">
+        <v>76416</v>
+      </c>
       <c r="F12"/>
+      <c r="G12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
         <v>26</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="n">
         <v>177022</v>
       </c>
-      <c r="C13" t="n">
+      <c r="D13" t="n">
         <v>4236</v>
       </c>
-      <c r="D13"/>
       <c r="E13"/>
       <c r="F13"/>
+      <c r="G13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
         <v>28</v>
       </c>
-      <c r="B14" t="n">
-        <v>16252576</v>
+      <c r="B14" t="s">
+        <v>29</v>
       </c>
       <c r="C14" t="n">
-        <v>10477548</v>
+        <v>33460977</v>
       </c>
       <c r="D14" t="n">
-        <v>7949952</v>
+        <v>29621704</v>
       </c>
       <c r="E14" t="n">
-        <v>1818072</v>
+        <v>21365048</v>
       </c>
       <c r="F14" t="n">
-        <v>104190</v>
+        <v>5472319</v>
+      </c>
+      <c r="G14" t="n">
+        <v>3149697</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
         <v>30</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" t="n">
         <v>12845414</v>
       </c>
-      <c r="C15" t="n">
+      <c r="D15" t="n">
         <v>1071427</v>
       </c>
-      <c r="D15"/>
       <c r="E15"/>
       <c r="F15"/>
+      <c r="G15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
         <v>32</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" t="n">
         <v>2846566</v>
       </c>
-      <c r="C16" t="n">
+      <c r="D16" t="n">
         <v>907881</v>
       </c>
-      <c r="D16" t="n">
+      <c r="E16" t="n">
         <v>387431</v>
       </c>
-      <c r="E16"/>
       <c r="F16"/>
+      <c r="G16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
         <v>34</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" t="n">
         <v>2332473</v>
       </c>
-      <c r="C17" t="n">
+      <c r="D17" t="n">
         <v>1382173</v>
       </c>
-      <c r="D17" t="n">
+      <c r="E17" t="n">
         <v>839237</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>117067</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
         <v>104191</v>
       </c>
     </row>
@@ -4140,75 +4185,96 @@
       <c r="A18" t="s">
         <v>36</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" t="n">
         <v>371100</v>
       </c>
-      <c r="C18" t="n">
+      <c r="D18" t="n">
         <v>88245</v>
       </c>
-      <c r="D18"/>
       <c r="E18"/>
       <c r="F18"/>
+      <c r="G18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
         <v>38</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" t="n">
         <v>26047</v>
       </c>
-      <c r="C19"/>
       <c r="D19"/>
       <c r="E19"/>
       <c r="F19"/>
+      <c r="G19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
         <v>40</v>
       </c>
-      <c r="B20" t="n">
-        <v>67138</v>
+      <c r="B20" t="s">
+        <v>41</v>
       </c>
       <c r="C20" t="n">
-        <v>3296</v>
-      </c>
-      <c r="D20"/>
-      <c r="E20"/>
-      <c r="F20"/>
+        <v>16252576</v>
+      </c>
+      <c r="D20" t="n">
+        <v>10477548</v>
+      </c>
+      <c r="E20" t="n">
+        <v>7949952</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1818072</v>
+      </c>
+      <c r="G20" t="n">
+        <v>104190</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
         <v>42</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" t="n">
         <v>909442</v>
       </c>
-      <c r="C21" t="n">
+      <c r="D21" t="n">
         <v>294885</v>
       </c>
-      <c r="D21" t="n">
+      <c r="E21" t="n">
         <v>30149</v>
       </c>
-      <c r="E21"/>
       <c r="F21"/>
+      <c r="G21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
         <v>44</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" t="n">
         <v>70602871</v>
       </c>
-      <c r="C22" t="n">
+      <c r="D22" t="n">
         <v>52385770</v>
       </c>
-      <c r="D22" t="n">
+      <c r="E22" t="n">
         <v>40486654</v>
       </c>
-      <c r="E22" t="n">
+      <c r="F22" t="n">
         <v>25841659</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22" t="n">
         <v>2761202</v>
       </c>
     </row>
@@ -4216,35 +4282,41 @@
       <c r="A23" t="s">
         <v>46</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" t="n">
         <v>560741</v>
       </c>
-      <c r="C23" t="n">
+      <c r="D23" t="n">
         <v>183272</v>
       </c>
-      <c r="D23" t="n">
+      <c r="E23" t="n">
         <v>60806</v>
       </c>
-      <c r="E23"/>
       <c r="F23"/>
+      <c r="G23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
         <v>48</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" t="n">
         <v>44291404</v>
       </c>
-      <c r="C24" t="n">
+      <c r="D24" t="n">
         <v>34418675</v>
       </c>
-      <c r="D24" t="n">
+      <c r="E24" t="n">
         <v>8810049</v>
       </c>
-      <c r="E24" t="n">
+      <c r="F24" t="n">
         <v>2240085</v>
       </c>
-      <c r="F24" t="n">
+      <c r="G24" t="n">
         <v>4587153</v>
       </c>
     </row>
@@ -4252,365 +4324,427 @@
       <c r="A25" t="s">
         <v>50</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" t="n">
         <v>821070</v>
       </c>
-      <c r="C25" t="n">
+      <c r="D25" t="n">
         <v>68210</v>
       </c>
-      <c r="D25" t="n">
+      <c r="E25" t="n">
         <v>12471</v>
       </c>
-      <c r="E25"/>
       <c r="F25"/>
+      <c r="G25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
         <v>52</v>
       </c>
-      <c r="B26" t="n">
-        <v>26635154</v>
+      <c r="B26" t="s">
+        <v>53</v>
       </c>
       <c r="C26" t="n">
-        <v>13563354</v>
+        <v>734894</v>
       </c>
       <c r="D26" t="n">
-        <v>8733129</v>
+        <v>320884</v>
       </c>
       <c r="E26" t="n">
-        <v>2962538</v>
+        <v>18827</v>
       </c>
       <c r="F26"/>
+      <c r="G26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
         <v>54</v>
       </c>
-      <c r="B27" t="n">
-        <v>734894</v>
+      <c r="B27" t="s">
+        <v>55</v>
       </c>
       <c r="C27" t="n">
-        <v>320884</v>
+        <v>26635154</v>
       </c>
       <c r="D27" t="n">
-        <v>18827</v>
-      </c>
-      <c r="E27"/>
-      <c r="F27"/>
+        <v>13563354</v>
+      </c>
+      <c r="E27" t="n">
+        <v>8733129</v>
+      </c>
+      <c r="F27" t="n">
+        <v>2962538</v>
+      </c>
+      <c r="G27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
         <v>56</v>
       </c>
-      <c r="B28" t="n">
-        <v>39812497</v>
+      <c r="B28" t="s">
+        <v>57</v>
       </c>
       <c r="C28" t="n">
-        <v>4001710</v>
+        <v>511839</v>
       </c>
       <c r="D28" t="n">
-        <v>646438</v>
+        <v>507172</v>
       </c>
       <c r="E28" t="n">
-        <v>94739</v>
-      </c>
-      <c r="F28" t="n">
-        <v>104190</v>
-      </c>
+        <v>79753</v>
+      </c>
+      <c r="F28"/>
+      <c r="G28"/>
     </row>
     <row r="29">
       <c r="A29" t="s">
         <v>58</v>
       </c>
-      <c r="B29" t="n">
-        <v>511839</v>
+      <c r="B29" t="s">
+        <v>59</v>
       </c>
       <c r="C29" t="n">
-        <v>507172</v>
+        <v>39812497</v>
       </c>
       <c r="D29" t="n">
-        <v>79753</v>
-      </c>
-      <c r="E29"/>
-      <c r="F29"/>
+        <v>4001710</v>
+      </c>
+      <c r="E29" t="n">
+        <v>646438</v>
+      </c>
+      <c r="F29" t="n">
+        <v>94739</v>
+      </c>
+      <c r="G29" t="n">
+        <v>104190</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
         <v>60</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" t="n">
         <v>2899665</v>
       </c>
-      <c r="C30" t="n">
+      <c r="D30" t="n">
         <v>1454230</v>
       </c>
-      <c r="D30" t="n">
+      <c r="E30" t="n">
         <v>292555</v>
       </c>
-      <c r="E30"/>
       <c r="F30"/>
+      <c r="G30"/>
     </row>
     <row r="31">
       <c r="A31" t="s">
         <v>62</v>
       </c>
-      <c r="B31" t="n">
-        <v>26870369</v>
+      <c r="B31" t="s">
+        <v>63</v>
       </c>
       <c r="C31" t="n">
-        <v>14921255</v>
+        <v>878140</v>
       </c>
       <c r="D31" t="n">
-        <v>11078791</v>
+        <v>178182</v>
       </c>
       <c r="E31" t="n">
-        <v>3560183</v>
+        <v>26190</v>
       </c>
       <c r="F31" t="n">
-        <v>1915200</v>
-      </c>
+        <v>11514</v>
+      </c>
+      <c r="G31"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
         <v>64</v>
       </c>
-      <c r="B32" t="n">
-        <v>26047</v>
+      <c r="B32" t="s">
+        <v>65</v>
       </c>
       <c r="C32" t="n">
-        <v>26047</v>
-      </c>
-      <c r="D32"/>
-      <c r="E32"/>
-      <c r="F32"/>
+        <v>26870369</v>
+      </c>
+      <c r="D32" t="n">
+        <v>14921255</v>
+      </c>
+      <c r="E32" t="n">
+        <v>11078791</v>
+      </c>
+      <c r="F32" t="n">
+        <v>3560183</v>
+      </c>
+      <c r="G32" t="n">
+        <v>1915200</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
         <v>66</v>
       </c>
-      <c r="B33" t="n">
-        <v>31289</v>
-      </c>
-      <c r="C33"/>
+      <c r="B33" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" t="n">
+        <v>53188</v>
+      </c>
       <c r="D33"/>
       <c r="E33"/>
       <c r="F33"/>
+      <c r="G33"/>
     </row>
     <row r="34">
       <c r="A34" t="s">
         <v>68</v>
       </c>
-      <c r="B34" t="n">
-        <v>878140</v>
+      <c r="B34" t="s">
+        <v>69</v>
       </c>
       <c r="C34" t="n">
-        <v>178182</v>
+        <v>26047</v>
       </c>
       <c r="D34" t="n">
-        <v>26190</v>
-      </c>
-      <c r="E34" t="n">
-        <v>11514</v>
-      </c>
+        <v>26047</v>
+      </c>
+      <c r="E34"/>
       <c r="F34"/>
+      <c r="G34"/>
     </row>
     <row r="35">
       <c r="A35" t="s">
         <v>70</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" t="n">
         <v>16574026</v>
       </c>
-      <c r="C35" t="n">
+      <c r="D35" t="n">
         <v>74834</v>
       </c>
-      <c r="D35" t="n">
+      <c r="E35" t="n">
         <v>6374</v>
       </c>
-      <c r="E35"/>
       <c r="F35"/>
+      <c r="G35"/>
     </row>
     <row r="36">
       <c r="A36" t="s">
         <v>72</v>
       </c>
-      <c r="B36" t="n">
-        <v>148545</v>
+      <c r="B36" t="s">
+        <v>73</v>
       </c>
       <c r="C36" t="n">
-        <v>100813</v>
+        <v>1051908</v>
       </c>
       <c r="D36" t="n">
-        <v>35765</v>
-      </c>
-      <c r="E36"/>
-      <c r="F36"/>
+        <v>1225008</v>
+      </c>
+      <c r="E36" t="n">
+        <v>584871</v>
+      </c>
+      <c r="F36" t="n">
+        <v>85062</v>
+      </c>
+      <c r="G36" t="n">
+        <v>103298</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
         <v>74</v>
       </c>
-      <c r="B37" t="n">
-        <v>1051908</v>
+      <c r="B37" t="s">
+        <v>75</v>
       </c>
       <c r="C37" t="n">
-        <v>1225008</v>
+        <v>52095</v>
       </c>
       <c r="D37" t="n">
-        <v>584871</v>
-      </c>
-      <c r="E37" t="n">
-        <v>85062</v>
-      </c>
-      <c r="F37" t="n">
-        <v>103298</v>
-      </c>
+        <v>10419</v>
+      </c>
+      <c r="E37"/>
+      <c r="F37"/>
+      <c r="G37"/>
     </row>
     <row r="38">
       <c r="A38" t="s">
         <v>76</v>
       </c>
-      <c r="B38" t="n">
-        <v>698471</v>
+      <c r="B38" t="s">
+        <v>77</v>
       </c>
       <c r="C38" t="n">
-        <v>646877</v>
-      </c>
-      <c r="D38" t="n">
-        <v>369924</v>
-      </c>
-      <c r="E38" t="n">
-        <v>18582</v>
-      </c>
+        <v>58346</v>
+      </c>
+      <c r="D38"/>
+      <c r="E38"/>
       <c r="F38"/>
+      <c r="G38"/>
     </row>
     <row r="39">
       <c r="A39" t="s">
         <v>78</v>
       </c>
-      <c r="B39" t="n">
-        <v>599986</v>
+      <c r="B39" t="s">
+        <v>79</v>
       </c>
       <c r="C39" t="n">
-        <v>249144</v>
+        <v>39612532</v>
       </c>
       <c r="D39" t="n">
-        <v>38307</v>
+        <v>26505067</v>
       </c>
       <c r="E39" t="n">
-        <v>33299</v>
-      </c>
-      <c r="F39"/>
+        <v>21354930</v>
+      </c>
+      <c r="F39" t="n">
+        <v>6957727</v>
+      </c>
+      <c r="G39" t="n">
+        <v>53942</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
         <v>80</v>
       </c>
-      <c r="B40" t="n">
-        <v>52095</v>
+      <c r="B40" t="s">
+        <v>81</v>
       </c>
       <c r="C40" t="n">
-        <v>10419</v>
-      </c>
-      <c r="D40"/>
+        <v>177295</v>
+      </c>
+      <c r="D40" t="n">
+        <v>37433</v>
+      </c>
       <c r="E40"/>
       <c r="F40"/>
+      <c r="G40"/>
     </row>
     <row r="41">
       <c r="A41" t="s">
         <v>82</v>
       </c>
-      <c r="B41" t="n">
-        <v>39612532</v>
+      <c r="B41" t="s">
+        <v>83</v>
       </c>
       <c r="C41" t="n">
-        <v>26505067</v>
+        <v>599986</v>
       </c>
       <c r="D41" t="n">
-        <v>21354930</v>
+        <v>249144</v>
       </c>
       <c r="E41" t="n">
-        <v>6957727</v>
+        <v>38307</v>
       </c>
       <c r="F41" t="n">
-        <v>53942</v>
-      </c>
+        <v>33299</v>
+      </c>
+      <c r="G41"/>
     </row>
     <row r="42">
       <c r="A42" t="s">
         <v>84</v>
       </c>
-      <c r="B42" t="n">
-        <v>1684206</v>
+      <c r="B42" t="s">
+        <v>85</v>
       </c>
       <c r="C42" t="n">
-        <v>1274849</v>
+        <v>698471</v>
       </c>
       <c r="D42" t="n">
-        <v>773425</v>
-      </c>
-      <c r="E42"/>
-      <c r="F42"/>
+        <v>646877</v>
+      </c>
+      <c r="E42" t="n">
+        <v>369924</v>
+      </c>
+      <c r="F42" t="n">
+        <v>18582</v>
+      </c>
+      <c r="G42"/>
     </row>
     <row r="43">
       <c r="A43" t="s">
         <v>86</v>
       </c>
-      <c r="B43" t="n">
-        <v>58346</v>
-      </c>
-      <c r="C43"/>
-      <c r="D43"/>
-      <c r="E43"/>
+      <c r="B43" t="s">
+        <v>87</v>
+      </c>
+      <c r="C43" t="n">
+        <v>44217189</v>
+      </c>
+      <c r="D43" t="n">
+        <v>17987524</v>
+      </c>
+      <c r="E43" t="n">
+        <v>2546862</v>
+      </c>
       <c r="F43"/>
+      <c r="G43"/>
     </row>
     <row r="44">
       <c r="A44" t="s">
         <v>88</v>
       </c>
-      <c r="B44" t="n">
-        <v>177295</v>
+      <c r="B44" t="s">
+        <v>89</v>
       </c>
       <c r="C44" t="n">
-        <v>37433</v>
-      </c>
-      <c r="D44"/>
-      <c r="E44"/>
+        <v>1684206</v>
+      </c>
+      <c r="D44" t="n">
+        <v>1274849</v>
+      </c>
+      <c r="E44" t="n">
+        <v>773425</v>
+      </c>
       <c r="F44"/>
+      <c r="G44"/>
     </row>
     <row r="45">
       <c r="A45" t="s">
         <v>90</v>
       </c>
-      <c r="B45" t="n">
-        <v>44217189</v>
+      <c r="B45" t="s">
+        <v>91</v>
       </c>
       <c r="C45" t="n">
-        <v>17987524</v>
-      </c>
-      <c r="D45" t="n">
-        <v>2546862</v>
-      </c>
+        <v>208380</v>
+      </c>
+      <c r="D45"/>
       <c r="E45"/>
       <c r="F45"/>
+      <c r="G45"/>
     </row>
     <row r="46">
       <c r="A46" t="s">
         <v>92</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46" t="s">
+        <v>93</v>
+      </c>
+      <c r="C46" t="n">
         <v>8208624</v>
       </c>
-      <c r="C46" t="n">
+      <c r="D46" t="n">
         <v>1356923</v>
       </c>
-      <c r="D46" t="n">
+      <c r="E46" t="n">
         <v>907113</v>
       </c>
-      <c r="E46" t="n">
+      <c r="F46" t="n">
         <v>830756</v>
       </c>
-      <c r="F46" t="n">
+      <c r="G46" t="n">
         <v>696373</v>
       </c>
     </row>
@@ -4618,389 +4752,471 @@
       <c r="A47" t="s">
         <v>94</v>
       </c>
-      <c r="B47" t="n">
-        <v>208380</v>
-      </c>
-      <c r="C47"/>
+      <c r="B47" t="s">
+        <v>95</v>
+      </c>
+      <c r="C47" t="n">
+        <v>31289</v>
+      </c>
       <c r="D47"/>
       <c r="E47"/>
       <c r="F47"/>
+      <c r="G47"/>
     </row>
     <row r="48">
       <c r="A48" t="s">
         <v>96</v>
       </c>
-      <c r="B48" t="n">
-        <v>296757</v>
-      </c>
-      <c r="C48"/>
-      <c r="D48"/>
-      <c r="E48"/>
+      <c r="B48" t="s">
+        <v>97</v>
+      </c>
+      <c r="C48" t="n">
+        <v>2852761</v>
+      </c>
+      <c r="D48" t="n">
+        <v>530505</v>
+      </c>
+      <c r="E48" t="n">
+        <v>5156</v>
+      </c>
       <c r="F48"/>
+      <c r="G48"/>
     </row>
     <row r="49">
       <c r="A49" t="s">
         <v>98</v>
       </c>
-      <c r="B49" t="n">
-        <v>2852761</v>
+      <c r="B49" t="s">
+        <v>99</v>
       </c>
       <c r="C49" t="n">
-        <v>530505</v>
+        <v>23765055</v>
       </c>
       <c r="D49" t="n">
-        <v>5156</v>
-      </c>
-      <c r="E49"/>
-      <c r="F49"/>
+        <v>4623122</v>
+      </c>
+      <c r="E49" t="n">
+        <v>524792</v>
+      </c>
+      <c r="F49" t="n">
+        <v>386869</v>
+      </c>
+      <c r="G49"/>
     </row>
     <row r="50">
       <c r="A50" t="s">
         <v>100</v>
       </c>
-      <c r="B50" t="n">
-        <v>23765055</v>
+      <c r="B50" t="s">
+        <v>101</v>
       </c>
       <c r="C50" t="n">
-        <v>4623122</v>
-      </c>
-      <c r="D50" t="n">
-        <v>524792</v>
-      </c>
-      <c r="E50" t="n">
-        <v>386869</v>
-      </c>
+        <v>296757</v>
+      </c>
+      <c r="D50"/>
+      <c r="E50"/>
       <c r="F50"/>
+      <c r="G50"/>
     </row>
     <row r="51">
       <c r="A51" t="s">
         <v>102</v>
       </c>
-      <c r="B51" t="n">
-        <v>105231</v>
-      </c>
-      <c r="C51"/>
-      <c r="D51"/>
-      <c r="E51"/>
-      <c r="F51"/>
+      <c r="B51" t="s">
+        <v>103</v>
+      </c>
+      <c r="C51" t="n">
+        <v>45032745</v>
+      </c>
+      <c r="D51" t="n">
+        <v>16402922</v>
+      </c>
+      <c r="E51" t="n">
+        <v>10010735</v>
+      </c>
+      <c r="F51" t="n">
+        <v>7060268</v>
+      </c>
+      <c r="G51" t="n">
+        <v>1354470</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
         <v>104</v>
       </c>
-      <c r="B52" t="n">
-        <v>45032745</v>
+      <c r="B52" t="s">
+        <v>105</v>
       </c>
       <c r="C52" t="n">
-        <v>16402922</v>
+        <v>5627657</v>
       </c>
       <c r="D52" t="n">
-        <v>10010735</v>
+        <v>3334080</v>
       </c>
       <c r="E52" t="n">
-        <v>7060268</v>
+        <v>2205460</v>
       </c>
       <c r="F52" t="n">
-        <v>1354470</v>
-      </c>
+        <v>1742959</v>
+      </c>
+      <c r="G52"/>
     </row>
     <row r="53">
       <c r="A53" t="s">
         <v>106</v>
       </c>
-      <c r="B53" t="n">
-        <v>7564307</v>
+      <c r="B53" t="s">
+        <v>107</v>
       </c>
       <c r="C53" t="n">
-        <v>221941</v>
+        <v>105231</v>
       </c>
       <c r="D53"/>
       <c r="E53"/>
       <c r="F53"/>
+      <c r="G53"/>
     </row>
     <row r="54">
       <c r="A54" t="s">
         <v>108</v>
       </c>
-      <c r="B54" t="n">
+      <c r="B54" t="s">
+        <v>109</v>
+      </c>
+      <c r="C54" t="n">
         <v>113496</v>
       </c>
-      <c r="C54"/>
       <c r="D54"/>
       <c r="E54"/>
       <c r="F54"/>
+      <c r="G54"/>
     </row>
     <row r="55">
       <c r="A55" t="s">
         <v>110</v>
       </c>
-      <c r="B55" t="n">
-        <v>5627657</v>
+      <c r="B55" t="s">
+        <v>111</v>
       </c>
       <c r="C55" t="n">
-        <v>3334080</v>
+        <v>5250953</v>
       </c>
       <c r="D55" t="n">
-        <v>2205460</v>
+        <v>857033</v>
       </c>
       <c r="E55" t="n">
-        <v>1742959</v>
+        <v>25439</v>
       </c>
       <c r="F55"/>
+      <c r="G55"/>
     </row>
     <row r="56">
       <c r="A56" t="s">
         <v>112</v>
       </c>
-      <c r="B56" t="n">
-        <v>5250953</v>
+      <c r="B56" t="s">
+        <v>113</v>
       </c>
       <c r="C56" t="n">
-        <v>857033</v>
+        <v>3244377</v>
       </c>
       <c r="D56" t="n">
-        <v>25439</v>
-      </c>
-      <c r="E56"/>
+        <v>463647</v>
+      </c>
+      <c r="E56" t="n">
+        <v>4728</v>
+      </c>
       <c r="F56"/>
+      <c r="G56"/>
     </row>
     <row r="57">
       <c r="A57" t="s">
         <v>114</v>
       </c>
-      <c r="B57" t="n">
-        <v>5173693</v>
+      <c r="B57" t="s">
+        <v>115</v>
       </c>
       <c r="C57" t="n">
-        <v>1119883</v>
+        <v>69989264</v>
       </c>
       <c r="D57" t="n">
-        <v>16615845</v>
-      </c>
-      <c r="E57"/>
-      <c r="F57"/>
+        <v>38324177</v>
+      </c>
+      <c r="E57" t="n">
+        <v>23246103</v>
+      </c>
+      <c r="F57" t="n">
+        <v>1646572</v>
+      </c>
+      <c r="G57" t="n">
+        <v>1036690</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
         <v>116</v>
       </c>
-      <c r="B58" t="n">
-        <v>69989264</v>
+      <c r="B58" t="s">
+        <v>117</v>
       </c>
       <c r="C58" t="n">
-        <v>38324177</v>
+        <v>148545</v>
       </c>
       <c r="D58" t="n">
-        <v>23246103</v>
+        <v>100813</v>
       </c>
       <c r="E58" t="n">
-        <v>1646572</v>
-      </c>
-      <c r="F58" t="n">
-        <v>1036690</v>
-      </c>
+        <v>35765</v>
+      </c>
+      <c r="F58"/>
+      <c r="G58"/>
     </row>
     <row r="59">
       <c r="A59" t="s">
         <v>118</v>
       </c>
-      <c r="B59" t="n">
-        <v>16826631</v>
+      <c r="B59" t="s">
+        <v>119</v>
       </c>
       <c r="C59" t="n">
-        <v>1155239</v>
-      </c>
-      <c r="D59"/>
+        <v>7564307</v>
+      </c>
+      <c r="D59" t="n">
+        <v>221941</v>
+      </c>
       <c r="E59"/>
       <c r="F59"/>
+      <c r="G59"/>
     </row>
     <row r="60">
       <c r="A60" t="s">
         <v>120</v>
       </c>
-      <c r="B60" t="n">
-        <v>26047</v>
-      </c>
-      <c r="C60"/>
-      <c r="D60"/>
-      <c r="E60"/>
+      <c r="B60" t="s">
+        <v>121</v>
+      </c>
+      <c r="C60" t="n">
+        <v>5173693</v>
+      </c>
+      <c r="D60" t="n">
+        <v>1119883</v>
+      </c>
+      <c r="E60" t="n">
+        <v>16615845</v>
+      </c>
       <c r="F60"/>
+      <c r="G60"/>
     </row>
     <row r="61">
       <c r="A61" t="s">
         <v>122</v>
       </c>
-      <c r="B61" t="n">
-        <v>258666</v>
+      <c r="B61" t="s">
+        <v>123</v>
       </c>
       <c r="C61" t="n">
-        <v>9381</v>
-      </c>
-      <c r="D61"/>
+        <v>16826631</v>
+      </c>
+      <c r="D61" t="n">
+        <v>1155239</v>
+      </c>
       <c r="E61"/>
       <c r="F61"/>
+      <c r="G61"/>
     </row>
     <row r="62">
       <c r="A62" t="s">
         <v>124</v>
       </c>
-      <c r="B62" t="n">
-        <v>99635662</v>
+      <c r="B62" t="s">
+        <v>125</v>
       </c>
       <c r="C62" t="n">
-        <v>128522</v>
+        <v>1120042</v>
       </c>
       <c r="D62" t="n">
-        <v>23359</v>
+        <v>859567</v>
       </c>
       <c r="E62"/>
       <c r="F62"/>
+      <c r="G62"/>
     </row>
     <row r="63">
       <c r="A63" t="s">
         <v>126</v>
       </c>
-      <c r="B63" t="n">
-        <v>1120042</v>
+      <c r="B63" t="s">
+        <v>127</v>
       </c>
       <c r="C63" t="n">
-        <v>859567</v>
+        <v>26047</v>
       </c>
       <c r="D63"/>
       <c r="E63"/>
       <c r="F63"/>
+      <c r="G63"/>
     </row>
     <row r="64">
       <c r="A64" t="s">
         <v>128</v>
       </c>
-      <c r="B64" t="n">
-        <v>7919963</v>
+      <c r="B64" t="s">
+        <v>129</v>
       </c>
       <c r="C64" t="n">
-        <v>1271247</v>
+        <v>258666</v>
       </c>
       <c r="D64" t="n">
-        <v>1235361</v>
+        <v>9381</v>
       </c>
       <c r="E64"/>
       <c r="F64"/>
+      <c r="G64"/>
     </row>
     <row r="65">
       <c r="A65" t="s">
         <v>130</v>
       </c>
-      <c r="B65" t="n">
-        <v>16368162</v>
+      <c r="B65" t="s">
+        <v>131</v>
       </c>
       <c r="C65" t="n">
-        <v>13455213</v>
+        <v>99635662</v>
       </c>
       <c r="D65" t="n">
-        <v>7138302</v>
+        <v>128522</v>
       </c>
       <c r="E65" t="n">
-        <v>4355142</v>
-      </c>
-      <c r="F65" t="n">
-        <v>1572380</v>
-      </c>
+        <v>23359</v>
+      </c>
+      <c r="F65"/>
+      <c r="G65"/>
     </row>
     <row r="66">
       <c r="A66" t="s">
         <v>132</v>
       </c>
-      <c r="B66" t="n">
-        <v>4086</v>
-      </c>
-      <c r="C66"/>
-      <c r="D66"/>
-      <c r="E66"/>
-      <c r="F66"/>
+      <c r="B66" t="s">
+        <v>133</v>
+      </c>
+      <c r="C66" t="n">
+        <v>16368162</v>
+      </c>
+      <c r="D66" t="n">
+        <v>13455213</v>
+      </c>
+      <c r="E66" t="n">
+        <v>7138302</v>
+      </c>
+      <c r="F66" t="n">
+        <v>4355142</v>
+      </c>
+      <c r="G66" t="n">
+        <v>1572380</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
         <v>134</v>
       </c>
-      <c r="B67" t="n">
-        <v>620046</v>
-      </c>
-      <c r="C67"/>
-      <c r="D67"/>
-      <c r="E67"/>
+      <c r="B67" t="s">
+        <v>135</v>
+      </c>
+      <c r="C67" t="n">
+        <v>7919963</v>
+      </c>
+      <c r="D67" t="n">
+        <v>1271247</v>
+      </c>
+      <c r="E67" t="n">
+        <v>1235361</v>
+      </c>
       <c r="F67"/>
+      <c r="G67"/>
     </row>
     <row r="68">
       <c r="A68" t="s">
         <v>136</v>
       </c>
-      <c r="B68" t="n">
-        <v>112869</v>
-      </c>
-      <c r="C68"/>
+      <c r="B68" t="s">
+        <v>137</v>
+      </c>
+      <c r="C68" t="n">
+        <v>4086</v>
+      </c>
       <c r="D68"/>
       <c r="E68"/>
       <c r="F68"/>
+      <c r="G68"/>
     </row>
     <row r="69">
       <c r="A69" t="s">
         <v>138</v>
       </c>
-      <c r="B69" t="n">
-        <v>53188</v>
-      </c>
-      <c r="C69"/>
+      <c r="B69" t="s">
+        <v>139</v>
+      </c>
+      <c r="C69" t="n">
+        <v>112869</v>
+      </c>
       <c r="D69"/>
       <c r="E69"/>
       <c r="F69"/>
+      <c r="G69"/>
     </row>
     <row r="70">
       <c r="A70" t="s">
         <v>140</v>
       </c>
-      <c r="B70" t="n">
-        <v>23361796</v>
+      <c r="B70" t="s">
+        <v>141</v>
       </c>
       <c r="C70" t="n">
-        <v>8212811</v>
-      </c>
-      <c r="D70" t="n">
-        <v>506979</v>
-      </c>
-      <c r="E70" t="n">
-        <v>154264</v>
-      </c>
+        <v>620046</v>
+      </c>
+      <c r="D70"/>
+      <c r="E70"/>
       <c r="F70"/>
+      <c r="G70"/>
     </row>
     <row r="71">
       <c r="A71" t="s">
         <v>142</v>
       </c>
-      <c r="B71" t="n">
-        <v>3244377</v>
+      <c r="B71" t="s">
+        <v>143</v>
       </c>
       <c r="C71" t="n">
-        <v>463647</v>
+        <v>23361796</v>
       </c>
       <c r="D71" t="n">
-        <v>4728</v>
-      </c>
-      <c r="E71"/>
-      <c r="F71"/>
+        <v>8212811</v>
+      </c>
+      <c r="E71" t="n">
+        <v>506979</v>
+      </c>
+      <c r="F71" t="n">
+        <v>154264</v>
+      </c>
+      <c r="G71"/>
     </row>
     <row r="72">
       <c r="A72" t="s">
         <v>144</v>
       </c>
-      <c r="B72" t="n">
+      <c r="B72" t="s">
+        <v>145</v>
+      </c>
+      <c r="C72" t="n">
         <v>4237494</v>
       </c>
-      <c r="C72" t="n">
+      <c r="D72" t="n">
         <v>156285</v>
       </c>
-      <c r="D72"/>
       <c r="E72"/>
       <c r="F72"/>
+      <c r="G72"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/user-data/iati-budgets-nl/iati-budgets-nl.xlsx
+++ b/user-data/iati-budgets-nl/iati-budgets-nl.xlsx
@@ -16,10 +16,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="164">
   <si>
-    <t xml:space="preserve">id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">entity-name</t>
+    <t xml:space="preserve">di_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">entity_name</t>
   </si>
   <si>
     <t xml:space="preserve">year</t>
@@ -472,13 +472,19 @@
     <t xml:space="preserve">Name: iati-budgets-nl</t>
   </si>
   <si>
-    <t xml:space="preserve">Description: The data shows forward looking budget data reported to the International Aid Transparency Initiative (IATI) by the Netherlands for existing or committed projects spanning multiple years. Budget data is displayed for the Ministry of Foreign Affairs only. This visualisation shows only project financing for specific countries: Regional and unspecified funding is excluded.</t>
+    <t xml:space="preserve">Description: Netherlands Foreign Affairs forward-looking budgets for each country based on activities reported through IATI.</t>
   </si>
   <si>
     <t xml:space="preserve">Units of measure: US$</t>
   </si>
   <si>
-    <t xml:space="preserve">Source: Development Initaitives based on Netherlands Ministry of Foreign Affairs data downloaded via the IATI Registry on 15 December 2016.</t>
+    <t xml:space="preserve">Source: 51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Source-link: 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"/>
   </si>
   <si>
     <t xml:space="preserve">Notes:</t>
@@ -487,25 +493,19 @@
     <t xml:space="preserve">On the 'Data-wide-value' sheet, we have provided the indicator in a wide format. The values you see listed there are from the 'value' column.</t>
   </si>
   <si>
-    <t xml:space="preserve"/>
-  </si>
-  <si>
-    <t xml:space="preserve">The following is data downloaded from Development Initiative's Datahub: http://data.devinit.org.</t>
+    <t xml:space="preserve">The following is data downloaded from Development Initiative's Datahub: http://devinit.org/data</t>
   </si>
   <si>
     <t xml:space="preserve">It is licensed under a Creative Commons Attribution 4.0 International license.</t>
   </si>
   <si>
-    <t xml:space="preserve">More information on licensing is available here: https://creativecommons.org/licenses/by/4.0/.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">For concerns, questions, or corrections: please email info@devinit.org.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If you experience any technical issues when opening the .xlsx and/or the .csv and/or the .zip files please contact info@devinit.org.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Copyright Development Initiatives Poverty Research Ltd. 2017.</t>
+    <t xml:space="preserve">More information on licensing is available here: https://creativecommons.org/licenses/by/4.0/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For concerns, questions, or corrections: please email info@devinit.org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Copyright Development Initiatives Poverty Research Ltd. 2018</t>
   </si>
 </sst>
 </file>
@@ -858,63 +858,62 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5"/>
+      <c r="A5" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7"/>
+      <c r="A7" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
         <v>163</v>
       </c>
     </row>

--- a/user-data/iati-budgets-nl/iati-budgets-nl.xlsx
+++ b/user-data/iati-budgets-nl/iati-budgets-nl.xlsx
@@ -478,7 +478,7 @@
     <t xml:space="preserve">Units of measure: US$</t>
   </si>
   <si>
-    <t xml:space="preserve">Source: 51</t>
+    <t xml:space="preserve">Source: 52</t>
   </si>
   <si>
     <t xml:space="preserve">Source-link: 1</t>

--- a/user-data/iati-budgets-nl/iati-budgets-nl.xlsx
+++ b/user-data/iati-budgets-nl/iati-budgets-nl.xlsx
@@ -478,7 +478,7 @@
     <t xml:space="preserve">Units of measure: US$</t>
   </si>
   <si>
-    <t xml:space="preserve">Source: 52</t>
+    <t xml:space="preserve">Source: 51</t>
   </si>
   <si>
     <t xml:space="preserve">Source-link: 1</t>
